--- a/tests/import example.xlsx
+++ b/tests/import example.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Женщинам_Белье</t>
   </si>
   <si>
-    <t xml:space="preserve">a21dcab4-aa1a-11ee-0a80-003800341778</t>
+    <t xml:space="preserve">eeesfsef</t>
   </si>
   <si>
     <t xml:space="preserve">OmJ 7101_0</t>
@@ -1906,10 +1906,10 @@
   <dimension ref="A1:AX64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
